--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H2">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I2">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J2">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.2749518318829</v>
+        <v>88.76498299999999</v>
       </c>
       <c r="N2">
-        <v>23.2749518318829</v>
+        <v>266.294949</v>
       </c>
       <c r="O2">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="P2">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="Q2">
-        <v>24.79645822294438</v>
+        <v>101.3334240612637</v>
       </c>
       <c r="R2">
-        <v>24.79645822294438</v>
+        <v>912.000816551373</v>
       </c>
       <c r="S2">
-        <v>0.05763166518812832</v>
+        <v>0.1616618480225476</v>
       </c>
       <c r="T2">
-        <v>0.05763166518812832</v>
+        <v>0.1616618480225476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H3">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I3">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J3">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>97.92815060772899</v>
+        <v>97.95392866666667</v>
       </c>
       <c r="N3">
-        <v>97.92815060772899</v>
+        <v>293.861786</v>
       </c>
       <c r="O3">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035443</v>
       </c>
       <c r="P3">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035442</v>
       </c>
       <c r="Q3">
-        <v>104.3298096999032</v>
+        <v>111.8234539857469</v>
       </c>
       <c r="R3">
-        <v>104.3298096999032</v>
+        <v>1006.411085871722</v>
       </c>
       <c r="S3">
-        <v>0.2424822370882936</v>
+        <v>0.1783970727434504</v>
       </c>
       <c r="T3">
-        <v>0.2424822370882936</v>
+        <v>0.1783970727434504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H4">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I4">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J4">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>109.734427180424</v>
+        <v>127.375404</v>
       </c>
       <c r="N4">
-        <v>109.734427180424</v>
+        <v>382.126212</v>
       </c>
       <c r="O4">
-        <v>0.4751693125018324</v>
+        <v>0.4055323437791133</v>
       </c>
       <c r="P4">
-        <v>0.4751693125018324</v>
+        <v>0.4055323437791133</v>
       </c>
       <c r="Q4">
-        <v>116.9078741323432</v>
+        <v>145.410784661636</v>
       </c>
       <c r="R4">
-        <v>116.9078741323432</v>
+        <v>1308.697061954724</v>
       </c>
       <c r="S4">
-        <v>0.2717160410278551</v>
+        <v>0.2319804781944093</v>
       </c>
       <c r="T4">
-        <v>0.2717160410278551</v>
+        <v>0.2319804781944093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H5">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I5">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J5">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.2749518318829</v>
+        <v>88.76498299999999</v>
       </c>
       <c r="N5">
-        <v>23.2749518318829</v>
+        <v>266.294949</v>
       </c>
       <c r="O5">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="P5">
-        <v>0.1007846228812503</v>
+        <v>0.2826061427173424</v>
       </c>
       <c r="Q5">
-        <v>18.56688522084221</v>
+        <v>75.810710145963</v>
       </c>
       <c r="R5">
-        <v>18.56688522084221</v>
+        <v>682.296391313667</v>
       </c>
       <c r="S5">
-        <v>0.04315295769312201</v>
+        <v>0.1209442946947948</v>
       </c>
       <c r="T5">
-        <v>0.04315295769312201</v>
+        <v>0.1209442946947948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H6">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I6">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J6">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>97.92815060772899</v>
+        <v>97.95392866666667</v>
       </c>
       <c r="N6">
-        <v>97.92815060772899</v>
+        <v>293.861786</v>
       </c>
       <c r="O6">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035443</v>
       </c>
       <c r="P6">
-        <v>0.4240460646169173</v>
+        <v>0.3118615135035442</v>
       </c>
       <c r="Q6">
-        <v>78.11920494427775</v>
+        <v>83.65863027098202</v>
       </c>
       <c r="R6">
-        <v>78.11920494427775</v>
+        <v>752.927672438838</v>
       </c>
       <c r="S6">
-        <v>0.1815638275286237</v>
+        <v>0.1334644407600939</v>
       </c>
       <c r="T6">
-        <v>0.1815638275286237</v>
+        <v>0.1334644407600939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H7">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I7">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J7">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.734427180424</v>
+        <v>127.375404</v>
       </c>
       <c r="N7">
-        <v>109.734427180424</v>
+        <v>382.126212</v>
       </c>
       <c r="O7">
-        <v>0.4751693125018324</v>
+        <v>0.4055323437791133</v>
       </c>
       <c r="P7">
-        <v>0.4751693125018324</v>
+        <v>0.4055323437791133</v>
       </c>
       <c r="Q7">
-        <v>87.53730314676126</v>
+        <v>108.786364915644</v>
       </c>
       <c r="R7">
-        <v>87.53730314676126</v>
+        <v>979.0772842407961</v>
       </c>
       <c r="S7">
-        <v>0.2034532714739772</v>
+        <v>0.1735518655847041</v>
       </c>
       <c r="T7">
-        <v>0.2034532714739772</v>
+        <v>0.1735518655847041</v>
       </c>
     </row>
   </sheetData>
